--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>N</t>
   </si>
@@ -58,6 +61,30 @@
   </si>
   <si>
     <t>p.202</t>
+  </si>
+  <si>
+    <t>Gogol</t>
+  </si>
+  <si>
+    <t>Sara pe deal</t>
+  </si>
+  <si>
+    <t>Taras Bulba</t>
+  </si>
+  <si>
+    <t>p.1</t>
+  </si>
+  <si>
+    <t>p.201</t>
+  </si>
+  <si>
+    <t>p.78</t>
+  </si>
+  <si>
+    <t>V.Alecsandri</t>
+  </si>
+  <si>
+    <t>Ostasii Nostri</t>
   </si>
 </sst>
 </file>
@@ -391,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,7 +500,59 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>37090</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>37815</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37390</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,13 +117,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,7 +437,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -433,121 +449,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>36945</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>37993</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>39403</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>37090</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>37815</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>37390</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -78,13 +78,13 @@
     <t>p.201</t>
   </si>
   <si>
-    <t>p.78</t>
-  </si>
-  <si>
     <t>V.Alecsandri</t>
   </si>
   <si>
     <t>Ostasii Nostri</t>
+  </si>
+  <si>
+    <t>p.781</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -558,13 +558,13 @@
         <v>37390</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
